--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ughg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hrgnru</t>
   </si>
   <si>
     <t xml:space="preserve">pranavi</t>
@@ -131,10 +137,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -149,10 +155,16 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>22</v>
@@ -160,7 +172,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>24</v>
@@ -173,7 +185,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ughg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hrgnru</t>
   </si>
   <si>
     <t xml:space="preserve">pranavi</t>
@@ -137,10 +131,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -155,16 +149,10 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>22</v>
@@ -172,20 +160,18 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -28,13 +28,13 @@
     <t xml:space="preserve">Age</t>
   </si>
   <si>
-    <t xml:space="preserve">pranavi</t>
+    <t xml:space="preserve">Pranavi</t>
   </si>
   <si>
     <t xml:space="preserve">ghn </t>
   </si>
   <si>
-    <t xml:space="preserve">sudha</t>
+    <t xml:space="preserve">drrr</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,7 +163,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">ghn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hgyg</t>
   </si>
   <si>
     <t xml:space="preserve">drrr</t>
@@ -167,13 +170,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>56</v>

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">ghn </t>
   </si>
   <si>
-    <t xml:space="preserve">hgyg</t>
+    <t xml:space="preserve">ffff</t>
   </si>
   <si>
     <t xml:space="preserve">drrr</t>

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -31,13 +31,7 @@
     <t xml:space="preserve">Pranavi</t>
   </si>
   <si>
-    <t xml:space="preserve">ghn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drrr</t>
+    <t xml:space="preserve">tina</t>
   </si>
 </sst>
 </file>
@@ -162,24 +156,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>76</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>56</v>

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pranavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilip</t>
   </si>
   <si>
     <t xml:space="preserve">tina</t>
@@ -131,7 +134,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -156,13 +159,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>56</v>

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Pranavi</t>
   </si>
   <si>
-    <t xml:space="preserve">dilip</t>
+    <t xml:space="preserve">sandhya</t>
   </si>
   <si>
     <t xml:space="preserve">tina</t>

--- a/uploads/temp1.xlsx
+++ b/uploads/temp1.xlsx
@@ -134,7 +134,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,7 +163,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
